--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/466d83af7520988d/Desktop/assm 2 bussiness/datapandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2BB1D69C5B00D24B431B3A1159F1B8315795E0D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CC93866-AC33-4CC3-B7FB-FD81932437F6}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2BB1D69C5B2050106F7A27115982F0B26B6DE3D2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3466201A-951F-4798-B083-98E9D15371F3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>Product ID</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>1001</t>
-  </si>
-  <si>
     <t>Laptop Dell</t>
   </si>
   <si>
@@ -52,15 +49,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>ABC Electronics</t>
+    <t>Abc Electronics</t>
   </si>
   <si>
     <t>Electronics</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>Smartphone Samsung</t>
   </si>
   <si>
@@ -70,13 +64,10 @@
     <t>20</t>
   </si>
   <si>
-    <t>XYZ Mobile</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>TV Sony</t>
+    <t>Xyz Mobile</t>
+  </si>
+  <si>
+    <t>Tv Sony</t>
   </si>
   <si>
     <t>1200</t>
@@ -85,9 +76,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>1004</t>
-  </si>
-  <si>
     <t>Headphones Sony</t>
   </si>
   <si>
@@ -97,9 +85,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>1005</t>
-  </si>
-  <si>
     <t>Tablet Apple</t>
   </si>
   <si>
@@ -109,10 +94,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>Refrigerator LG</t>
+    <t>Refrigerator Lg</t>
   </si>
   <si>
     <t>1500</t>
@@ -121,15 +103,12 @@
     <t>8</t>
   </si>
   <si>
-    <t>PQR Appliances</t>
+    <t>Pqr Appliances</t>
   </si>
   <si>
     <t>Appliances</t>
   </si>
   <si>
-    <t>1007</t>
-  </si>
-  <si>
     <t>Microwave Samsung</t>
   </si>
   <si>
@@ -139,10 +118,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>Washing Machine LG</t>
+    <t>Washing Machine Lg</t>
   </si>
   <si>
     <t>1000</t>
@@ -151,9 +127,6 @@
     <t>18</t>
   </si>
   <si>
-    <t>1009</t>
-  </si>
-  <si>
     <t>Camera Canon</t>
   </si>
   <si>
@@ -163,10 +136,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>XYZ Cameras</t>
-  </si>
-  <si>
-    <t>1010</t>
+    <t>Xyz Cameras</t>
   </si>
   <si>
     <t>Speaker Bose</t>
@@ -175,9 +145,6 @@
     <t>300</t>
   </si>
   <si>
-    <t>1011</t>
-  </si>
-  <si>
     <t>Blender Philips</t>
   </si>
   <si>
@@ -187,31 +154,19 @@
     <t>40</t>
   </si>
   <si>
-    <t>1012</t>
-  </si>
-  <si>
     <t>Smartwatch Apple</t>
   </si>
   <si>
     <t>350</t>
   </si>
   <si>
-    <t>1013</t>
-  </si>
-  <si>
     <t>Vacuum Cleaner Dyson</t>
   </si>
   <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>Printer HP</t>
-  </si>
-  <si>
-    <t>XYZ Printers</t>
-  </si>
-  <si>
-    <t>1015</t>
+    <t>Printer Hp</t>
+  </si>
+  <si>
+    <t>Xyz Printers</t>
   </si>
   <si>
     <t>Air Conditioner Panasonic</t>
@@ -579,14 +534,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,303 +567,303 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
       <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
